--- a/Doo-Doc/Seccion # 7/Residentes - Event Storming.xlsx
+++ b/Doo-Doc/Seccion # 7/Residentes - Event Storming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Seccion # 7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{7423097B-73D0-407D-B72F-4ECC25465402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77D59C58-19D2-4805-BDD0-7B20E6E6D4F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558FB66C-2D7F-4CD8-B5DD-EA4EB681EBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -21,6 +21,8 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$3:$B$6</definedName>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>Descripción</t>
   </si>
@@ -63,9 +65,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Descripción en términos del negocio del objeto de dominio 1</t>
-  </si>
-  <si>
     <t>Actor</t>
   </si>
   <si>
@@ -138,15 +137,6 @@
     <t>Descripción contexto</t>
   </si>
   <si>
-    <t>Contexto cuya motivación es ofrecer las ubicaciones geogràficas de Pais, Departamento, Ciudad y Corregimiento.</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que representa a cada uno de los países donde pueden estar ubicadas las sedes de las Universidad Católica de Oriente y en las cuales se pueden realizar apuestas.</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que representa a cada uno de los departamentos asociados a los países donde pueden estar ubicadas las sedes de las Universidad Católica de Oriente y en las cuales se pueden realizar apuestas.</t>
-  </si>
-  <si>
     <t>ConjuntoResidencial</t>
   </si>
   <si>
@@ -156,12 +146,6 @@
     <t>Residente</t>
   </si>
   <si>
-    <t>Referenciado</t>
-  </si>
-  <si>
-    <t>Conjuntos Residenciales</t>
-  </si>
-  <si>
     <t>Residentes</t>
   </si>
   <si>
@@ -220,6 +204,9 @@
   </si>
   <si>
     <t>Administrador eliminado</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que representa a cada uno de los conjuntos residenciales existentes.</t>
   </si>
 </sst>
 </file>
@@ -389,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -488,36 +475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -547,74 +504,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -623,7 +517,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -671,61 +565,58 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -734,9 +625,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,12 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -870,6 +752,89 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Valores"/>
+      <sheetName val="ContextMapping"/>
+      <sheetName val="Contextos"/>
+      <sheetName val=" Gestión de Conjuntos residenci"/>
+      <sheetName val="Gestión de Residentes"/>
+      <sheetName val="Reservas"/>
+      <sheetName val="Reserva-0001"/>
+      <sheetName val="Reserva-0002"/>
+      <sheetName val="Reserva-0003"/>
+      <sheetName val="CaracterizaciónContexto1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="11">
+          <cell r="D11" t="str">
+            <v>Contexto cuya motivación es encargarce de manejar la información de los residentes, incluidas sus identificaciones, contacto, y la relación entre el residente y su residencia dentro del conjunto.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Valores"/>
+      <sheetName val="Modelo Dominio anémico contexto"/>
+      <sheetName val="Listado Objetos de Dominio"/>
+      <sheetName val="Residente"/>
+      <sheetName val="Administrador"/>
+      <sheetName val="ConjuntoResidencial"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Referenciado</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Objeto de dominio que representa a un residente que podrá realizar una reserva de una zona común dentro de un conjunto residencial.</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v xml:space="preserve"> Objeto de dominio que representa el Administrador encarcador de hacer CRUD a sonas comunes y Usuarios(residentes) , tambien encargado de cancelar reservas.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1206,15 +1171,15 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18"/>
     </row>
   </sheetData>
@@ -1228,104 +1193,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="2" spans="1:4" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="B2" s="25" t="str">
+        <f>[1]Contextos!$D$11</f>
+        <v>Contexto cuya motivación es encargarce de manejar la información de los residentes, incluidas sus identificaciones, contacto, y la relación entre el residente y su residencia dentro del conjunto.</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="23" t="str">
+        <f>'[2]Listado Objetos de Dominio'!$B$3</f>
+        <v>Objeto de dominio que representa a un residente que podrá realizar una reserva de una zona común dentro de un conjunto residencial.</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="26" t="str">
+        <f>$B$1</f>
+        <v>Residentes</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="19" t="str">
+        <f>[2]Valores!$A$4</f>
+        <v>Referenciado</v>
+      </c>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>37</v>
-      </c>
+      <c r="B6" s="23" t="str">
+        <f>'[2]Listado Objetos de Dominio'!$B$5</f>
+        <v xml:space="preserve"> Objeto de dominio que representa el Administrador encarcador de hacer CRUD a sonas comunes y Usuarios(residentes) , tambien encargado de cancelar reservas.</v>
+      </c>
+      <c r="C6" s="19" t="str">
+        <f>[2]Valores!$A$4</f>
+        <v>Referenciado</v>
+      </c>
+      <c r="D6" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A4" location="ConjuntoResidencial!B2" display="ConjuntoResidencial" xr:uid="{5FBAD61E-EF42-421E-A370-0599E3DF701D}"/>
-    <hyperlink ref="A5" location="Administrador!B2" display="Administrador" xr:uid="{73197E91-856C-4027-AAF7-236FE35F42A8}"/>
-    <hyperlink ref="A6" location="Residente!B2" display="Residente" xr:uid="{0EDF37AB-FD73-4881-AC1F-834EA35450FC}"/>
+    <hyperlink ref="A4" location="Residente!B2" display="Residente" xr:uid="{0EDF37AB-FD73-4881-AC1F-834EA35450FC}"/>
+    <hyperlink ref="A6" location="Administrador!B2" display="Administrador" xr:uid="{73197E91-856C-4027-AAF7-236FE35F42A8}"/>
+    <hyperlink ref="A5" location="ConjuntoResidencial!B2" display="ConjuntoResidencial" xr:uid="{5FBAD61E-EF42-421E-A370-0599E3DF701D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1340,182 +1307,182 @@
       <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="str">
-        <f>'Listado Objetos de Dominio'!A4</f>
+      <c r="B2" s="44" t="str">
+        <f>'Listado Objetos de Dominio'!A5</f>
         <v>ConjuntoResidencial</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="str">
-        <f>'[1]Listado Objetos de Dominio'!$B$5</f>
+      <c r="B3" s="29" t="str">
+        <f>'[3]Listado Objetos de Dominio'!$B$5</f>
         <v>Descripción en términos del negocio del objeto de dominio 2</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="16" t="s">
+      <c r="C5" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="9" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="37"/>
+      <c r="I5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="J5" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1526,13 +1493,13 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1543,13 +1510,13 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1560,13 +1527,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1577,13 +1544,13 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1594,13 +1561,13 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1611,7 +1578,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
@@ -1619,10 +1586,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -1636,6 +1599,10 @@
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{64ABF577-E571-4FFE-B80D-734A8306DE60}"/>
@@ -1656,182 +1623,182 @@
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="str">
-        <f>'Listado Objetos de Dominio'!A5</f>
+      <c r="B2" s="44" t="str">
+        <f>'Listado Objetos de Dominio'!A6</f>
         <v>Administrador</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="str">
-        <f>'[1]Listado Objetos de Dominio'!$B$5</f>
+      <c r="B3" s="29" t="str">
+        <f>'[3]Listado Objetos de Dominio'!$B$5</f>
         <v>Descripción en términos del negocio del objeto de dominio 2</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="16" t="s">
+      <c r="C5" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="9" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="37"/>
+      <c r="I5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="J5" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1842,13 +1809,13 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1859,13 +1826,13 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1876,13 +1843,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1893,13 +1860,13 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1910,13 +1877,13 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1927,13 +1894,13 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1944,7 +1911,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -1952,6 +1919,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -1967,8 +1936,6 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{4353CBFE-180D-46EA-A259-4451E366CD39}"/>
@@ -1983,186 +1950,186 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="str">
-        <f>'Listado Objetos de Dominio'!A6</f>
+      <c r="B2" s="44" t="str">
+        <f>'Listado Objetos de Dominio'!A4</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="str">
-        <f>'[1]Listado Objetos de Dominio'!$B$5</f>
+      <c r="B3" s="29" t="str">
+        <f>'[3]Listado Objetos de Dominio'!$B$5</f>
         <v>Descripción en términos del negocio del objeto de dominio 2</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="16" t="s">
+      <c r="C5" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="9" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="37"/>
+      <c r="I5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="J5" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -2173,13 +2140,13 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -2190,13 +2157,13 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -2207,13 +2174,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -2224,13 +2191,13 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -2241,13 +2208,13 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2258,7 +2225,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
@@ -2266,10 +2233,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -2283,6 +2246,10 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{EC2BF949-7155-4AFE-A2CF-DA09B8246EFF}"/>
@@ -2295,12 +2262,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C279D002CEC08F42B7087C30E58D0266" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5713f579c7011938dc4987ae8981b8f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3219184d-29ab-4105-b29c-8e343e335d59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae0a0ff84a3c6712467f60982d6e378d" ns2:_="">
     <xsd:import namespace="3219184d-29ab-4105-b29c-8e343e335d59"/>
@@ -2444,7 +2405,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2453,24 +2414,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AEECCE0-61F9-4782-94C5-382F8EFF459D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2488,10 +2438,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Doo-Doc/Seccion # 7/Residentes - Event Storming.xlsx
+++ b/Doo-Doc/Seccion # 7/Residentes - Event Storming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Seccion # 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558FB66C-2D7F-4CD8-B5DD-EA4EB681EBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{558FB66C-2D7F-4CD8-B5DD-EA4EB681EBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE0413E1-525E-43CB-BEA0-D7E33E2F305C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
   <si>
     <t>Descripción</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Objeto de dominio que representa a cada uno de los conjuntos residenciales existentes.</t>
+  </si>
+  <si>
+    <t>Residente notificado</t>
   </si>
 </sst>
 </file>
@@ -601,15 +604,48 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -618,39 +654,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1171,15 +1174,15 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18"/>
     </row>
   </sheetData>
@@ -1193,19 +1196,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
@@ -1215,7 +1218,7 @@
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:4" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>28</v>
       </c>
@@ -1226,7 +1229,7 @@
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>31</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>Residentes</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>29</v>
       </c>
@@ -1269,7 +1272,7 @@
       </c>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>30</v>
       </c>
@@ -1307,90 +1310,90 @@
       <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44" t="str">
+      <c r="B2" s="39" t="str">
         <f>'Listado Objetos de Dominio'!A5</f>
         <v>ConjuntoResidencial</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="41" t="str">
         <f>'[3]Listado Objetos de Dominio'!$B$5</f>
         <v>Descripción en términos del negocio del objeto de dominio 2</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1401,14 +1404,14 @@
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="39" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1418,16 +1421,16 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="38" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -1436,34 +1439,34 @@
       <c r="C5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="37" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="40" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="34"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -1476,13 +1479,13 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="43"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1499,7 +1502,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1516,7 +1519,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1533,7 +1536,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1550,7 +1553,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1567,7 +1570,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1586,6 +1589,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -1602,7 +1606,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{64ABF577-E571-4FFE-B80D-734A8306DE60}"/>
@@ -1623,90 +1626,90 @@
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44" t="str">
+      <c r="B2" s="39" t="str">
         <f>'Listado Objetos de Dominio'!A6</f>
         <v>Administrador</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="41" t="str">
         <f>'[3]Listado Objetos de Dominio'!$B$5</f>
         <v>Descripción en términos del negocio del objeto de dominio 2</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1717,14 +1720,14 @@
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="39" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1734,16 +1737,16 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="38" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -1752,34 +1755,34 @@
       <c r="C5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="37" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="40" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="34"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -1792,13 +1795,13 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="43"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1815,7 +1818,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1832,7 +1835,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1849,7 +1852,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1866,7 +1869,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1883,7 +1886,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1900,7 +1903,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1919,6 +1922,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -1935,7 +1939,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{4353CBFE-180D-46EA-A259-4451E366CD39}"/>
@@ -1948,96 +1951,96 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44" t="str">
+      <c r="B2" s="39" t="str">
         <f>'Listado Objetos de Dominio'!A4</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="41" t="str">
         <f>'[3]Listado Objetos de Dominio'!$B$5</f>
         <v>Descripción en términos del negocio del objeto de dominio 2</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -2048,14 +2051,14 @@
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="39" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2065,16 +2068,16 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="38" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -2083,34 +2086,34 @@
       <c r="C5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="37" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="40" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="34"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2123,13 +2126,13 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="43"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -2146,7 +2149,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -2163,7 +2166,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -2180,7 +2183,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -2197,7 +2200,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -2214,7 +2217,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2225,14 +2228,32 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -2249,7 +2270,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{EC2BF949-7155-4AFE-A2CF-DA09B8246EFF}"/>
@@ -2262,6 +2282,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C279D002CEC08F42B7087C30E58D0266" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5713f579c7011938dc4987ae8981b8f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3219184d-29ab-4105-b29c-8e343e335d59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae0a0ff84a3c6712467f60982d6e378d" ns2:_="">
     <xsd:import namespace="3219184d-29ab-4105-b29c-8e343e335d59"/>
@@ -2405,22 +2440,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AEECCE0-61F9-4782-94C5-382F8EFF459D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2438,31 +2483,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>

--- a/Doo-Doc/Seccion # 7/Residentes - Event Storming.xlsx
+++ b/Doo-Doc/Seccion # 7/Residentes - Event Storming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Seccion # 7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{558FB66C-2D7F-4CD8-B5DD-EA4EB681EBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE0413E1-525E-43CB-BEA0-D7E33E2F305C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ACF84A-C07C-4FDC-9FDD-BFDABB4BD3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="10545" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$3:$B$6</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="108">
   <si>
     <t>Descripción</t>
   </si>
@@ -161,15 +162,9 @@
     <t>Número de contacto modificado</t>
   </si>
   <si>
-    <t>Puede reservar Residente modificado</t>
-  </si>
-  <si>
     <t>Correo electronico modificado</t>
   </si>
   <si>
-    <t>Conjunto residencial creado</t>
-  </si>
-  <si>
     <t>Conjunto residencial buscado</t>
   </si>
   <si>
@@ -191,18 +186,6 @@
     <t>Administrador buscado</t>
   </si>
   <si>
-    <t>Nombre y apellido administrador modificado</t>
-  </si>
-  <si>
-    <t>Email administrador modificado</t>
-  </si>
-  <si>
-    <t>Número de contacto administrador modificado</t>
-  </si>
-  <si>
-    <t>ID conjunto residencial asignado</t>
-  </si>
-  <si>
     <t>Administrador eliminado</t>
   </si>
   <si>
@@ -210,6 +193,186 @@
   </si>
   <si>
     <t>Residente notificado</t>
+  </si>
+  <si>
+    <t>Administrador del sistema</t>
+  </si>
+  <si>
+    <t>Registrar conjunto residencial</t>
+  </si>
+  <si>
+    <t>Acción de registrar un conjunto residencial en el sistema</t>
+  </si>
+  <si>
+    <t>ConRes-Pol0001</t>
+  </si>
+  <si>
+    <t>No puede haber más de un conjunto residencial con el mismo nombre.</t>
+  </si>
+  <si>
+    <t>Conjunto residencial registrado</t>
+  </si>
+  <si>
+    <t>Buscar conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Asociar residente</t>
+  </si>
+  <si>
+    <t>Asociar administrador</t>
+  </si>
+  <si>
+    <t>Eliminar residente</t>
+  </si>
+  <si>
+    <t>Eliminar administrador</t>
+  </si>
+  <si>
+    <t>Buscar conjunto residencial</t>
+  </si>
+  <si>
+    <t>Acción de buscar un conjunto residencial en el sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asociar residente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción de asociar un residente a un conjunto residencial. </t>
+  </si>
+  <si>
+    <t>ConRes-Pol0002</t>
+  </si>
+  <si>
+    <t>No puede haber un mismo residente asociado en más de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción de asociar un administrador a un conjunto residencial. </t>
+  </si>
+  <si>
+    <t>ConRes-Pol0003</t>
+  </si>
+  <si>
+    <t>No puede haber un mismo administrador asociado en más de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Acción de eliminar a un residente del conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Acción de eliminar a un administrador del conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Eliminar conjunto residencial</t>
+  </si>
+  <si>
+    <t>Acción de eliminar un conjunto residencial del sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto residencial registrado </t>
+  </si>
+  <si>
+    <t>Registrar conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Registrar administrador</t>
+  </si>
+  <si>
+    <t>Acción de registrar un administrador para un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Información conjunto residencial</t>
+  </si>
+  <si>
+    <t>Información del conjunto residencial al cual se va a registrar un administrador</t>
+  </si>
+  <si>
+    <t>Admin-Pol0001</t>
+  </si>
+  <si>
+    <t>No puede haber más de un administrador con el mismo nombre en el mismo conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Modificar administrador</t>
+  </si>
+  <si>
+    <t>Buscar administrador</t>
+  </si>
+  <si>
+    <t>Acción de modificar la información asociada a un administrador del conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Información del conjunto residencial al cual se va a modificar un administrador</t>
+  </si>
+  <si>
+    <t>Administrador modificado</t>
+  </si>
+  <si>
+    <t>Administrador creado</t>
+  </si>
+  <si>
+    <t>Acción de buscar la información asociada a un administrador del conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Información del conjunto residencial al cual se va a buscar un administrador</t>
+  </si>
+  <si>
+    <t>Acción de eliminar a un administrador de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Crear administrador</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Buscar residente</t>
+  </si>
+  <si>
+    <t>Acción de buscar un residente para un inicio de sección.</t>
+  </si>
+  <si>
+    <t>Información del conjunto residencial según donde se encuentra el residente.</t>
+  </si>
+  <si>
+    <t>Modificar nombre y apellido residente</t>
+  </si>
+  <si>
+    <t>Modificar correo electronico</t>
+  </si>
+  <si>
+    <t>Notificar residente</t>
+  </si>
+  <si>
+    <t>Modificar numero de contacto</t>
+  </si>
+  <si>
+    <t>Acción de Modificar los datos de un residente.</t>
+  </si>
+  <si>
+    <t>Resid-Pol0001 No puede habar mas de un residente con el mismo nombre y identificación iguales.</t>
+  </si>
+  <si>
+    <t>Acción de Notificar un residente</t>
+  </si>
+  <si>
+    <t>Residente Creado</t>
+  </si>
+  <si>
+    <t>Residente reservado</t>
+  </si>
+  <si>
+    <t>admitir residente</t>
+  </si>
+  <si>
+    <t>eliminar residente</t>
+  </si>
+  <si>
+    <t>Modificar residente</t>
+  </si>
+  <si>
+    <t>Mensaje resivido residente</t>
   </si>
 </sst>
 </file>
@@ -379,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -514,13 +677,147 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -604,6 +901,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -649,11 +952,110 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -854,11 +1256,52 @@
       <sheetName val="Turno"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="5">
           <cell r="B5" t="str">
             <v>Descripción en términos del negocio del objeto de dominio 2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Flujo de eventos en el tiempo"/>
+      <sheetName val="Listado Objetos de Dominio"/>
+      <sheetName val="ConjuntoResidencial"/>
+      <sheetName val="ZonaComun"/>
+      <sheetName val="Administrador"/>
+      <sheetName val="Agenda"/>
+      <sheetName val="Publicacion"/>
+      <sheetName val="Turno"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Objeto de dominio que representa a cada uno de los conjuntos residenciales existentes.</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v xml:space="preserve"> Objeto de dominio que representa el Administrador encargado de hacer CRUD a zonas comunes y Usuarios(residentes), tambien encargado de cancelar reservas.</v>
           </cell>
         </row>
       </sheetData>
@@ -1174,15 +1617,15 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18"/>
     </row>
   </sheetData>
@@ -1200,15 +1643,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
@@ -1218,7 +1661,7 @@
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:4" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>28</v>
       </c>
@@ -1229,7 +1672,7 @@
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1243,7 +1686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>31</v>
       </c>
@@ -1259,12 +1702,12 @@
         <v>Residentes</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C5" s="19" t="str">
         <f>[2]Valores!$A$4</f>
@@ -1272,7 +1715,7 @@
       </c>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>30</v>
       </c>
@@ -1304,114 +1747,113 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+    <sheetView topLeftCell="A11" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39" t="str">
-        <f>'Listado Objetos de Dominio'!A5</f>
-        <v>ConjuntoResidencial</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
+      <c r="B2" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="str">
-        <f>'[3]Listado Objetos de Dominio'!$B$5</f>
-        <v>Descripción en términos del negocio del objeto de dominio 2</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="B3" s="43" t="str">
+        <f>'[4]Listado Objetos de Dominio'!B4</f>
+        <v>Objeto de dominio que representa a cada uno de los conjuntos residenciales existentes.</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="34" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1421,52 +1863,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="40" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="32" t="s">
+      <c r="F5" s="45"/>
+      <c r="G5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="35" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="45"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="40"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -1479,116 +1921,389 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
+      <c r="K16" s="54"/>
+      <c r="L16" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
+      <c r="K17" s="54"/>
+      <c r="L17" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
+      <c r="K18" s="54"/>
+      <c r="L18" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="48" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="41">
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="F7:F11"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
@@ -1605,12 +2320,11 @@
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{64ABF577-E571-4FFE-B80D-734A8306DE60}"/>
-    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{A2743160-843C-4434-8E86-90F802C25968}"/>
-    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{3A6FFF2E-5426-4575-BC84-9294A15DC87C}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{12E165CC-07AE-4724-A722-8C85986A053C}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{155A6086-AFB7-411A-A811-2844B966E45F}"/>
+    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{92F300CE-8680-41E8-8AAB-FE60BA9A0199}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1619,115 +2333,114 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39" t="str">
-        <f>'Listado Objetos de Dominio'!A6</f>
-        <v>Administrador</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
+      <c r="B2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="str">
-        <f>'[3]Listado Objetos de Dominio'!$B$5</f>
-        <v>Descripción en términos del negocio del objeto de dominio 2</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="B3" s="43" t="str">
+        <f>'[4]Listado Objetos de Dominio'!$B$6</f>
+        <v xml:space="preserve"> Objeto de dominio que representa el Administrador encargado de hacer CRUD a zonas comunes y Usuarios(residentes), tambien encargado de cancelar reservas.</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="34" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1737,52 +2450,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="40" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="32" t="s">
+      <c r="F5" s="45"/>
+      <c r="G5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="35" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="45"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="40"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -1795,133 +2508,242 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
+      <c r="M7" s="48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="40">
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -1938,12 +2760,11 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{4353CBFE-180D-46EA-A259-4451E366CD39}"/>
-    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{4C6378E9-08DF-4600-BD7A-171F45B846DA}"/>
-    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{AE2BEE55-B9DE-4281-BB58-5244A52CC454}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{171D8416-5555-47CC-88C6-059E12392622}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{AE348A16-53E2-4CCC-93B2-754A740B8500}"/>
+    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{8470BA21-67E5-43CC-8F2E-84E0BD40E9C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1951,114 +2772,114 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="41" t="str">
         <f>'Listado Objetos de Dominio'!A4</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="43" t="str">
         <f>'[3]Listado Objetos de Dominio'!$B$5</f>
         <v>Descripción en términos del negocio del objeto de dominio 2</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="34" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2068,52 +2889,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="40" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="32" t="s">
+      <c r="F5" s="45"/>
+      <c r="G5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="35" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="45"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="40"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2126,133 +2947,240 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="69"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
+      <c r="L7" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
+      <c r="K9" s="12"/>
+      <c r="L9" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="78"/>
+      <c r="B12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="L12" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="12" t="s">
         <v>37</v>
       </c>
       <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="75"/>
+      <c r="B14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="80"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="35">
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="E7:E15"/>
+    <mergeCell ref="F7:F15"/>
+    <mergeCell ref="G7:H15"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I7:I15"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -2269,7 +3197,6 @@
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{EC2BF949-7155-4AFE-A2CF-DA09B8246EFF}"/>
@@ -2282,21 +3209,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C279D002CEC08F42B7087C30E58D0266" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5713f579c7011938dc4987ae8981b8f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3219184d-29ab-4105-b29c-8e343e335d59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae0a0ff84a3c6712467f60982d6e378d" ns2:_="">
     <xsd:import namespace="3219184d-29ab-4105-b29c-8e343e335d59"/>
@@ -2440,32 +3352,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AEECCE0-61F9-4782-94C5-382F8EFF459D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2483,6 +3385,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>

--- a/Doo-Doc/Seccion # 7/Residentes - Event Storming.xlsx
+++ b/Doo-Doc/Seccion # 7/Residentes - Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ACF84A-C07C-4FDC-9FDD-BFDABB4BD3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4633061-522B-469F-BB61-D7CBF02100EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="10545" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView minimized="1" xWindow="4668" yWindow="3312" windowWidth="17280" windowHeight="10236" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -886,6 +886,30 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -901,6 +925,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -949,75 +994,45 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1040,21 +1055,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1175,8 +1175,8 @@
       <sheetName val="CaracterizaciónContexto1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="11">
           <cell r="D11" t="str">
@@ -1184,13 +1184,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1218,9 +1218,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="3">
+          <cell r="A3" t="str">
+            <v>Residente</v>
+          </cell>
           <cell r="B3" t="str">
             <v>Objeto de dominio que representa a un residente que podrá realizar una reserva de una zona común dentro de un conjunto residencial.</v>
           </cell>
@@ -1231,9 +1234,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1257,10 +1260,15 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Descripción en términos del negocio del objeto de dominio 2</v>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Objeto de dominio que representa a cada uno de los conjuntos residenciales existentes.</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v xml:space="preserve"> Objeto de dominio que representa el Administrador encargado de hacer CRUD a zonas comunes y Usuarios(residentes), tambien encargado de cancelar reservas.</v>
           </cell>
         </row>
       </sheetData>
@@ -1292,25 +1300,20 @@
       <sheetName val="Turno"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Objeto de dominio que representa a cada uno de los conjuntos residenciales existentes.</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v xml:space="preserve"> Objeto de dominio que representa el Administrador encargado de hacer CRUD a zonas comunes y Usuarios(residentes), tambien encargado de cancelar reservas.</v>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Descripción en términos del negocio del objeto de dominio 2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1617,15 +1620,15 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18"/>
     </row>
   </sheetData>
@@ -1643,36 +1646,36 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:4" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="25" t="str">
+      <c r="B2" s="33" t="str">
         <f>[1]Contextos!$D$11</f>
         <v>Contexto cuya motivación es encargarce de manejar la información de los residentes, incluidas sus identificaciones, contacto, y la relación entre el residente y su residencia dentro del conjunto.</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>31</v>
       </c>
@@ -1697,12 +1700,12 @@
       <c r="C4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="26" t="str">
+      <c r="D4" s="34" t="str">
         <f>$B$1</f>
         <v>Residentes</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>29</v>
       </c>
@@ -1713,9 +1716,9 @@
         <f>[2]Valores!$A$4</f>
         <v>Referenciado</v>
       </c>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>30</v>
       </c>
@@ -1727,7 +1730,7 @@
         <f>[2]Valores!$A$4</f>
         <v>Referenciado</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1753,107 +1756,107 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43" t="str">
-        <f>'[4]Listado Objetos de Dominio'!B4</f>
+      <c r="B3" s="58" t="str">
+        <f>'[3]Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que representa a cada uno de los conjuntos residenciales existentes.</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1863,52 +1866,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="55" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="37" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="30"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -1921,364 +1924,389 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47" t="s">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="48" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="48" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="41"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="48" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="41"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="48" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="42"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47" t="s">
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47" t="s">
+      <c r="I12" s="37"/>
+      <c r="J12" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47" t="s">
+      <c r="K12" s="37"/>
+      <c r="L12" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="48" t="s">
+      <c r="M12" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="48" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="48" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="41"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="48" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+    <row r="16" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54" t="s">
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54" t="s">
+      <c r="I16" s="27"/>
+      <c r="J16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54" t="s">
+      <c r="K16" s="27"/>
+      <c r="L16" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="48" t="s">
+      <c r="M16" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+    <row r="17" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54" t="s">
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54" t="s">
+      <c r="I17" s="27"/>
+      <c r="J17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54" t="s">
+      <c r="K17" s="27"/>
+      <c r="L17" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+    <row r="18" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="54" t="s">
+      <c r="H18" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54" t="s">
+      <c r="I18" s="27"/>
+      <c r="J18" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54" t="s">
+      <c r="K18" s="27"/>
+      <c r="L18" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="48" t="s">
+      <c r="M18" s="25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+    <row r="19" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54" t="s">
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H19" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54" t="s">
+      <c r="I19" s="27"/>
+      <c r="J19" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54" t="s">
+      <c r="K19" s="27"/>
+      <c r="L19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="48" t="s">
+      <c r="M19" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+    <row r="20" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54" t="s">
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="54" t="s">
+      <c r="H20" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54" t="s">
+      <c r="I20" s="27"/>
+      <c r="J20" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54" t="s">
+      <c r="K20" s="27"/>
+      <c r="L20" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="48" t="s">
+      <c r="M20" s="25" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="L7:L11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
@@ -2295,31 +2323,6 @@
     <mergeCell ref="G7:G11"/>
     <mergeCell ref="H7:H11"/>
     <mergeCell ref="I7:I11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{12E165CC-07AE-4724-A722-8C85986A053C}"/>
@@ -2340,107 +2343,107 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43" t="str">
-        <f>'[4]Listado Objetos de Dominio'!$B$6</f>
+      <c r="B3" s="58" t="str">
+        <f>'[3]Listado Objetos de Dominio'!$B$6</f>
         <v xml:space="preserve"> Objeto de dominio que representa el Administrador encargado de hacer CRUD a zonas comunes y Usuarios(residentes), tambien encargado de cancelar reservas.</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2450,52 +2453,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="55" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="37" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="30"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2508,231 +2511,230 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47" t="s">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="48" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="48" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="42"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+    <row r="10" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54" t="s">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54" t="s">
+      <c r="K10" s="27"/>
+      <c r="L10" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="M10" s="48" t="s">
+      <c r="M10" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47" t="s">
+      <c r="I11" s="37"/>
+      <c r="J11" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47" t="s">
+      <c r="K11" s="37"/>
+      <c r="L11" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="48" t="s">
+      <c r="M11" s="25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="56" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+    <row r="13" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54" t="s">
+      <c r="I13" s="27"/>
+      <c r="J13" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54" t="s">
+      <c r="K13" s="27"/>
+      <c r="L13" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="48" t="s">
+      <c r="M13" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E14" s="58"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E14" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
@@ -2748,18 +2750,19 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{171D8416-5555-47CC-88C6-059E12392622}"/>
@@ -2778,108 +2781,108 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="56" t="str">
         <f>'Listado Objetos de Dominio'!A4</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43" t="str">
-        <f>'[3]Listado Objetos de Dominio'!$B$5</f>
+      <c r="B3" s="58" t="str">
+        <f>'[4]Listado Objetos de Dominio'!$B$5</f>
         <v>Descripción en términos del negocio del objeto de dominio 2</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2889,52 +2892,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="55" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="37" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="30"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2947,208 +2950,208 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="12"/>
-      <c r="L7" s="60" t="s">
+      <c r="L7" s="62" t="s">
         <v>102</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="61"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="66"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="61"/>
+      <c r="L8" s="64"/>
       <c r="M8" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="60" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="62" t="s">
         <v>34</v>
       </c>
       <c r="K9" s="12"/>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="62" t="s">
         <v>41</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="68"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="66"/>
+      <c r="L10" s="63"/>
       <c r="M10" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="61"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="68"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="61"/>
+      <c r="L11" s="64"/>
       <c r="M11" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="69"/>
       <c r="B12" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="66"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="12"/>
-      <c r="L12" s="60" t="s">
+      <c r="L12" s="62" t="s">
         <v>102</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="79" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="66"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="12" t="s">
         <v>37</v>
       </c>
       <c r="K13" s="12"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="79" t="s">
+      <c r="L13" s="63"/>
+      <c r="M13" s="60" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="80"/>
       <c r="B14" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="66"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="12" t="s">
         <v>36</v>
       </c>
       <c r="K14" s="12"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="80"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="L14" s="64"/>
+      <c r="M14" s="61"/>
+    </row>
+    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="31" t="s">
         <v>101</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="61"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="12" t="s">
         <v>47</v>
       </c>
@@ -3162,6 +3165,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I7:I15"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="L12:L14"/>
@@ -3178,25 +3200,6 @@
     <mergeCell ref="G7:H15"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I7:I15"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{EC2BF949-7155-4AFE-A2CF-DA09B8246EFF}"/>
@@ -3209,6 +3212,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C279D002CEC08F42B7087C30E58D0266" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5713f579c7011938dc4987ae8981b8f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3219184d-29ab-4105-b29c-8e343e335d59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae0a0ff84a3c6712467f60982d6e378d" ns2:_="">
     <xsd:import namespace="3219184d-29ab-4105-b29c-8e343e335d59"/>
@@ -3352,22 +3370,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AEECCE0-61F9-4782-94C5-382F8EFF459D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3385,31 +3413,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>
